--- a/Data/EC/NIT-9008522662.xlsx
+++ b/Data/EC/NIT-9008522662.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334BFFC8-7935-4275-A33B-A90FCC71277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E183B6D9-BF71-4AD9-B490-0DEFC7AFB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{440608F5-9FD1-4CC8-B593-7AA70DDE44F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61ED0F6E-3A94-4747-8F93-7CC328520326}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,205 +71,205 @@
     <t>DANIELA ISABEL CARBAL BENAVIDES</t>
   </si>
   <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -313,7 +313,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +368,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -381,9 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -583,23 +583,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,10 +627,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E432F6A-5ED4-2B2C-4B6A-A3D2F130CBDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C72AE09-7C6A-6532-A455-FEE708A69C7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,28 +1034,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E05CC9-C375-4BB6-AD18-F59755AB8F88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6240FEE0-CAD8-4C3D-B141-E52C6C00708A}">
   <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1068,7 +1068,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1079,7 +1079,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1090,7 +1090,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1101,8 +1101,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
@@ -1117,8 +1117,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
@@ -1149,8 +1149,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>81</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18750</v>
+        <v>24999</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1221,7 +1221,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="21" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="24">
-        <v>24999</v>
+        <v>18750</v>
       </c>
       <c r="G82" s="24">
         <v>781242</v>
@@ -2739,7 +2739,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="26"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="32" t="s">
         <v>87</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="32" t="s">
         <v>86</v>
       </c>

--- a/Data/EC/NIT-9008522662.xlsx
+++ b/Data/EC/NIT-9008522662.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E183B6D9-BF71-4AD9-B490-0DEFC7AFB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4FF947-1E2B-46AA-83A5-EFC35663AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61ED0F6E-3A94-4747-8F93-7CC328520326}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F340CE21-CA33-4A12-A365-F2E0D404E919}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -368,9 +368,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -383,7 +381,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -577,29 +577,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,19 +618,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +689,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C72AE09-7C6A-6532-A455-FEE708A69C7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8EDA19-01F2-496A-6FCF-C6856107C21D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6240FEE0-CAD8-4C3D-B141-E52C6C00708A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971CBF44-FF23-4D81-A6B1-DBC487B45F51}">
   <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1057,49 +1063,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,7 +1113,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008522662</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2074934</v>
       </c>
@@ -1208,18 +1214,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24999</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1231,18 +1237,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1254,18 +1260,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1277,18 +1283,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1300,18 +1306,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1323,18 +1329,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1346,18 +1352,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1369,18 +1375,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1392,18 +1398,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1415,18 +1421,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1438,18 +1444,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1461,18 +1467,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1484,18 +1490,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1507,18 +1513,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1530,18 +1536,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1553,18 +1559,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1576,18 +1582,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1599,18 +1605,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1622,18 +1628,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1645,18 +1651,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1668,18 +1674,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1691,18 +1697,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1714,18 +1720,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1737,18 +1743,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1760,18 +1766,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1783,18 +1789,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1806,18 +1812,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1829,18 +1835,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1852,18 +1858,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1875,18 +1881,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1898,18 +1904,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1921,18 +1927,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1944,18 +1950,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1967,18 +1973,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1990,18 +1996,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2013,18 +2019,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2036,18 +2042,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2059,18 +2065,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2082,18 +2088,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2105,18 +2111,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2128,18 +2134,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2151,18 +2157,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2174,18 +2180,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2197,18 +2203,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2220,18 +2226,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2243,18 +2249,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2266,18 +2272,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2289,18 +2295,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2312,18 +2318,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2335,18 +2341,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2358,18 +2364,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2381,18 +2387,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2404,18 +2410,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2427,18 +2433,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2450,18 +2456,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2473,18 +2479,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2496,18 +2502,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2519,18 +2525,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2542,18 +2548,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2565,18 +2571,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2588,18 +2594,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2611,18 +2617,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2634,18 +2640,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2657,18 +2663,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2680,18 +2686,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2703,47 +2709,47 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="22" t="s">
+      <c r="B82" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="24">
+      <c r="F82" s="26">
         <v>18750</v>
       </c>
-      <c r="G82" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
+      <c r="G82" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="32"/>
+      <c r="C87" s="34"/>
       <c r="H87" s="1" t="s">
         <v>87</v>
       </c>
@@ -2751,10 +2757,10 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="34"/>
       <c r="H88" s="1" t="s">
         <v>88</v>
       </c>
